--- a/Homework/FluidsHW10.xlsx
+++ b/Homework/FluidsHW10.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="320" documentId="11_F25DC773A252ABDACC10489A691F551C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F7F4D5-1443-48BF-8A87-4199139EEC1C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CA141-A2F5-48D8-B381-6353C167D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
     <sheet name="Question 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Question 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Question 1'!$D$14</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Density</t>
   </si>
@@ -159,6 +160,123 @@
   </si>
   <si>
     <t>Reactor Diameter</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Reator Depth</t>
+  </si>
+  <si>
+    <t>particle diameter</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>particle density</t>
+  </si>
+  <si>
+    <t>porosity (Vfrac)</t>
+  </si>
+  <si>
+    <t>fluidization velocity</t>
+  </si>
+  <si>
+    <t>fluidization flow rate</t>
+  </si>
+  <si>
+    <t>gpm</t>
+  </si>
+  <si>
+    <t>Sweep velocity</t>
+  </si>
+  <si>
+    <t>sweep flow rate</t>
+  </si>
+  <si>
+    <t>New Diameter</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Inside Diameter</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>epsilon/diameter</t>
+  </si>
+  <si>
+    <t>Particle Density</t>
+  </si>
+  <si>
+    <t>Particle diameter</t>
+  </si>
+  <si>
+    <t>Terminal Velocity</t>
+  </si>
+  <si>
+    <t>Pressure Gradient</t>
+  </si>
+  <si>
+    <t>Pa/m</t>
+  </si>
+  <si>
+    <t>Average Velocity</t>
+  </si>
+  <si>
+    <t>Phi (Solid Fraction)</t>
+  </si>
+  <si>
+    <t>Fluid Pressure Drop</t>
+  </si>
+  <si>
+    <t>kg/m s2</t>
+  </si>
+  <si>
+    <t>Reynolds Number</t>
+  </si>
+  <si>
+    <t>fanning friction factor</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Particle Froude Number</t>
+  </si>
+  <si>
+    <t>Terminal Froude Number</t>
+  </si>
+  <si>
+    <t>Vr/Vavg</t>
+  </si>
+  <si>
+    <t>Xo</t>
+  </si>
+  <si>
+    <t>X*</t>
+  </si>
+  <si>
+    <t>particle pressure drop</t>
+  </si>
+  <si>
+    <t>total Pressure Drop</t>
+  </si>
+  <si>
+    <t>Phi (solid Fraction)</t>
   </si>
 </sst>
 </file>
@@ -479,16 +597,16 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +617,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -526,7 +644,7 @@
         <v>7.4671789120905885E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -537,7 +655,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -546,15 +664,22 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="D6">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <f>1.75*(1-D6)*D10/D5/D6^3</f>
+        <v>13085.11919870462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -564,8 +689,15 @@
       <c r="D7">
         <v>9.81</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <f>180*D3*(1-D6)^2*D10/D5^2/D6^3/D1</f>
+        <v>1186.5153198223886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -575,8 +707,15 @@
       <c r="D8">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <f>-D15</f>
+        <v>-3.7376554498902705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -585,7 +724,7 @@
         <v>0.38100463301633747</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -596,8 +735,12 @@
         <f>1/3.2808</f>
         <v>0.30480370641306997</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f>(-G7+SQRT(G7^2-4*G6*G8))/2/G6</f>
+        <v>3.0476778115361624E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -608,8 +751,12 @@
         <f>2^2/4*PI()</f>
         <v>3.1415926535897931</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f>(-G7-SQRT(G7^2-4*G6*G8))/2/G6</f>
+        <v>-9.3724369540859442E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -618,7 +765,7 @@
         <v>2.1816615649929118E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -627,7 +774,7 @@
         <v>2.0268792097926673E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -638,7 +785,7 @@
         <v>3.0476719145654508E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -650,7 +797,7 @@
         <v>3.7376554498902705</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -662,7 +809,7 @@
         <v>6.1772628419017262E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -671,7 +818,7 @@
         <v>6.1772628419017259</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -690,15 +837,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3914C3-34A9-4851-8117-5700EE5613F7}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -709,7 +856,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -720,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -729,7 +876,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -740,13 +887,612 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
         <f>D4/12</f>
         <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>D6/3.2808</f>
+        <v>0.30480370641306997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>D8/12/3.2808</f>
+        <v>1.5875193042347393E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <f>$D$3/$D$1/D9*(((180*(1-$D$11)/3.5)^2+$D$11^3/1.75*(D9^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$11)/3.5)</f>
+        <v>5.3624114296040436E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <f>D13*PI()*(D5/2)^2</f>
+        <v>2.924741727911459E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <f>D14*60*364.17</f>
+        <v>6.3906191703210959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <f>$D$3/$D$1/D9*((14.42+1.827*(D9^3*9.81*$D$1*($D$10-$D$1)/$D$3^2)^(1/2))^(1/2)-3.798)^2</f>
+        <v>0.58581105463972027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <f>D17*PI()*(D5/2)^2</f>
+        <v>3.1951036556386006E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <f>D18*60*364.17</f>
+        <v>69.813653896434545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <f>D21/12/3.2808</f>
+        <v>3.1750386084694786E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <f>$D$3/$D$1/D22*(((180*(1-$D$11)/3.5)^2+$D$11^3/1.75*(D22^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$11)/3.5)</f>
+        <v>9.0754993732306027E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f>D24*PI()*(D5/2)^2</f>
+        <v>4.9499170414236168E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <f>D25*60*364.17</f>
+        <v>10.815667733851431</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <f>$D$3/$D$1/D22*((14.42+1.827*(D22^3*9.81*$D$1*($D$10-$D$1)/$D$3^2)^(1/2))^(1/2)-3.798)^2</f>
+        <v>0.90647400454132443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <f>D28*PI()*(D5/2)^2</f>
+        <v>4.9440487384325446E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <f>D29*60*364.17</f>
+        <v>108.02845374449879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DDAC11-7BAC-44E5-AAA1-7BC3E0AE7623}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <f>D2*1.8+32</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>D4/1000</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>6.0650000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>D6/12/3.2808</f>
+        <v>0.15405287328293912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>D8/12/3.2808</f>
+        <v>4.5720555961960493E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <f>D9/D7</f>
+        <v>2.9678483099752678E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <f>1/163</f>
+        <v>6.1349693251533744E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f>D11/12/3.2808</f>
+        <v>1.5583011575310326E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f>D5/D1/D12*((14.42+1.827*(D12^3*9.81*D1*(D13-D1)/D5^2)^(1/2))^(1/2)-3.798)^2</f>
+        <v>2.135497989435632E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <f>(D15/0.022)^2*4*D1/D7</f>
+        <v>244.64883980986048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <f>D18/3.2808</f>
+        <v>18.288222384784198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <f>D20/60/264.17</f>
+        <v>6.3090686552851067E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <f>D21/PI()/(D7/2)^2</f>
+        <v>0.33848214640392288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <f>D1*D22*D7/D5</f>
+        <v>57937.941342778642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <f>(2.457*LN(1/((7/D23)^0.9+(0.27*D10))))^16</f>
+        <v>3.9048960251558147E+20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <f>(37530/D23)^16</f>
+        <v>9.608333631361504E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <f>2*((8/D23)^12+1/(D24+D25)^(3/2))^(1/12)</f>
+        <v>5.3343168846972065E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <f>2*D1*D22^2*D19/D7*D26</f>
+        <v>145.10488417098671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <f>D22/((D13/D1-1)*D12*9.81)^(1/2)</f>
+        <v>21.442813276644891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
+        <f>D15/((D13/D1-1)*D12*9.81)^(1/2)</f>
+        <v>0.13528360395550876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <f>5^-1</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <f>D30^2/(1-D30)</f>
+        <v>5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34">
+        <f>D31</f>
+        <v>5.000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35">
+        <f>D34*D33*$D$1*9.81*$D$19*($D$13/$D$1-1)*($D$22/$D$15)^2</f>
+        <v>7346852.22908023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36">
+        <f>D35+$D$27</f>
+        <v>7346997.3339644009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39">
+        <f>D34+0.1*D29^2*(D38-0.25)</f>
+        <v>5.0274524802487876E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40">
+        <f>D39*D38*$D$1*9.81*$D$19*($D$13/$D$1-1)*($D$22/$D$15)^2</f>
+        <v>14774380.184444292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <f>D40+$D$27</f>
+        <v>14774525.289328463</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/FluidsHW10.xlsx
+++ b/Homework/FluidsHW10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55CA141-A2F5-48D8-B381-6353C167D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{F55CA141-A2F5-48D8-B381-6353C167D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54865B7-09A2-488B-B1EB-27FA985C1B22}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>Density</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Particle Froude Number</t>
   </si>
   <si>
-    <t>Terminal Froude Number</t>
-  </si>
-  <si>
     <t>Vr/Vavg</t>
   </si>
   <si>
@@ -277,6 +274,12 @@
   </si>
   <si>
     <t>Phi (solid Fraction)</t>
+  </si>
+  <si>
+    <t>Terminal Froude Number ^ 2</t>
+  </si>
+  <si>
+    <t>Min Bed Voidage</t>
   </si>
 </sst>
 </file>
@@ -329,6 +332,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,13 +607,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +624,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -628,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -644,7 +651,7 @@
         <v>7.4671789120905885E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -655,7 +662,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -664,7 +671,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -679,7 +686,7 @@
         <v>13085.11919870462</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -697,7 +704,7 @@
         <v>1186.5153198223886</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -715,7 +722,7 @@
         <v>-3.7376554498902705</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -724,7 +731,7 @@
         <v>0.38100463301633747</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -740,7 +747,7 @@
         <v>3.0476778115361624E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -756,7 +763,7 @@
         <v>-9.3724369540859442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -765,7 +772,7 @@
         <v>2.1816615649929118E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -774,7 +781,7 @@
         <v>2.0268792097926673E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -785,7 +792,7 @@
         <v>3.0476719145654508E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -797,7 +804,7 @@
         <v>3.7376554498902705</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -809,7 +816,7 @@
         <v>6.1772628419017262E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -818,7 +825,7 @@
         <v>6.1772628419017259</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -837,15 +844,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3914C3-34A9-4851-8117-5700EE5613F7}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -856,7 +863,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -867,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -876,7 +883,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -887,16 +894,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <f>D4/12</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <f>D4/3.2808</f>
+        <v>0.30480370641306997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -907,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -916,7 +923,7 @@
         <v>0.30480370641306997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -928,7 +935,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -937,7 +944,7 @@
         <v>1.5875193042347393E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -948,7 +955,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -956,157 +963,166 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <f>14^-(1/3)</f>
+        <v>0.41491326668312178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
-        <f>$D$3/$D$1/D9*(((180*(1-$D$11)/3.5)^2+$D$11^3/1.75*(D9^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$11)/3.5)</f>
-        <v>5.3624114296040436E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14">
+        <f>$D$3/$D$1/D9*(((180*(1-$D$12)/3.5)^2+$D$12^3/1.75*(D9^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$12)/3.5)</f>
+        <v>6.4151238820508966E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D14">
-        <f>D13*PI()*(D5/2)^2</f>
-        <v>2.924741727911459E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D15">
+        <f>D14*PI()*(D5/2)^2</f>
+        <v>4.6809652409184194E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="D15">
-        <f>D14*60*364.17</f>
-        <v>6.3906191703210959</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D16">
+        <f>D15*60*264.17</f>
+        <v>74.194235261605129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <f>$D$3/$D$1/D9*((14.42+1.827*(D9^3*9.81*$D$1*($D$10-$D$1)/$D$3^2)^(1/2))^(1/2)-3.798)^2</f>
         <v>0.58581105463972027</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
-        <f>D17*PI()*(D5/2)^2</f>
-        <v>3.1951036556386006E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="D19">
+        <f>D18*PI()*(D5/2)^2</f>
+        <v>4.274525691057475E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D19">
-        <f>D18*60*364.17</f>
-        <v>69.813653896434545</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D20">
+        <f>D19*60*264.17</f>
+        <v>677.52087108399201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>1/8</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
-        <f>D21/12/3.2808</f>
+      <c r="D23">
+        <f>D22/12/3.2808</f>
         <v>3.1750386084694786E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>14</v>
       </c>
-      <c r="D24">
-        <f>$D$3/$D$1/D22*(((180*(1-$D$11)/3.5)^2+$D$11^3/1.75*(D22^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$11)/3.5)</f>
-        <v>9.0754993732306027E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25">
+        <f>$D$3/$D$1/D23*(((180*(1-$D$12)/3.5)^2+$D$12^3/1.75*(D23^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$12)/3.5)</f>
+        <v>0.10534590083405303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D25">
-        <f>D24*PI()*(D5/2)^2</f>
-        <v>4.9499170414236168E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+      <c r="D26">
+        <f>D25*PI()*(D5/2)^2</f>
+        <v>7.6868429845471948E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
         <v>41</v>
       </c>
-      <c r="D26">
-        <f>D25*60*364.17</f>
-        <v>10.815667733851431</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27">
+        <f>D26*60*264.17</f>
+        <v>121.83799867366996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>14</v>
       </c>
-      <c r="D28">
-        <f>$D$3/$D$1/D22*((14.42+1.827*(D22^3*9.81*$D$1*($D$10-$D$1)/$D$3^2)^(1/2))^(1/2)-3.798)^2</f>
+      <c r="D29">
+        <f>$D$3/$D$1/D23*((14.42+1.827*(D23^3*9.81*$D$1*($D$10-$D$1)/$D$3^2)^(1/2))^(1/2)-3.798)^2</f>
         <v>0.90647400454132443</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D29">
-        <f>D28*PI()*(D5/2)^2</f>
-        <v>4.9440487384325446E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="D30">
+        <f>D29*PI()*(D5/2)^2</f>
+        <v>6.6143279304803307E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
         <v>41</v>
       </c>
-      <c r="D30">
-        <f>D29*60*364.17</f>
-        <v>108.02845374449879</v>
+      <c r="D31">
+        <f>D30*60*264.17</f>
+        <v>1048.3842056369933</v>
       </c>
     </row>
   </sheetData>
@@ -1118,16 +1134,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DDAC11-7BAC-44E5-AAA1-7BC3E0AE7623}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1138,7 +1154,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1149,7 +1165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>46</v>
       </c>
@@ -1158,7 +1174,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1194,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1189,7 +1205,7 @@
         <v>6.0650000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1214,7 @@
         <v>0.15405287328293912</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1234,7 @@
         <v>4.5720555961960493E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1227,7 +1243,7 @@
         <v>2.9678483099752678E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1235,20 +1251,20 @@
         <v>36</v>
       </c>
       <c r="D11">
-        <f>1/163</f>
-        <v>6.1349693251533744E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12">
         <f>D11/12/3.2808</f>
-        <v>1.5583011575310326E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5875193042347393E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1259,7 +1275,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1268,10 +1284,10 @@
       </c>
       <c r="D15">
         <f>D5/D1/D12*((14.42+1.827*(D12^3*9.81*D1*(D13-D1)/D5^2)^(1/2))^(1/2)-3.798)^2</f>
-        <v>2.135497989435632E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.114533401172372E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1280,10 +1296,10 @@
       </c>
       <c r="D16">
         <f>(D15/0.022)^2*4*D1/D7</f>
-        <v>244.64883980986048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140332.04858975054</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1294,7 +1310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1319,7 @@
         <v>18.288222384784198</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1314,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>24</v>
       </c>
@@ -1323,7 +1339,7 @@
         <v>6.3090686552851067E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1335,7 +1351,7 @@
         <v>0.33848214640392288</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1344,7 +1360,7 @@
         <v>57937.941342778642</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1369,7 @@
         <v>3.9048960251558147E+20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1362,7 +1378,7 @@
         <v>9.608333631361504E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1371,7 +1387,7 @@
         <v>5.3343168846972065E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1383,43 +1399,43 @@
         <v>145.10488417098671</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="D28">
         <f>D22/((D13/D1-1)*D12*9.81)^(1/2)</f>
-        <v>21.442813276644891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7181230304290498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <f>(D15/((D13/D1-1)*D7*9.81)^(1/2))^2</f>
+        <v>1.0619048973039783E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>63</v>
       </c>
-      <c r="D29">
-        <f>D15/((D13/D1-1)*D12*9.81)^(1/2)</f>
-        <v>0.13528360395550876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="D30">
+        <f>1*10^-1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>64</v>
-      </c>
-      <c r="D30">
-        <f>5^-1</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
       </c>
       <c r="D31">
         <f>D30^2/(1-D30)</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1111111111111113E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1427,72 +1443,72 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <f>D31</f>
-        <v>5.000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1111111111111113E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
       </c>
       <c r="D35">
         <f>D34*D33*$D$1*9.81*$D$19*($D$13/$D$1-1)*($D$22/$D$15)^2</f>
-        <v>7346852.22908023</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2846.2633877003418</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <f>D35+$D$27</f>
-        <v>7346997.3339644009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2991.3682718713285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <f>D34+0.1*D29^2*(D38-0.25)</f>
-        <v>5.0274524802487876E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.111280257412749E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>58</v>
       </c>
       <c r="D40">
         <f>D39*D38*$D$1*9.81*$D$19*($D$13/$D$1-1)*($D$22/$D$15)^2</f>
-        <v>14774380.184444292</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5693.3933582666123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41">
         <f>D40+$D$27</f>
-        <v>14774525.289328463</v>
+        <v>5838.4982424375994</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/FluidsHW10.xlsx
+++ b/Homework/FluidsHW10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{F55CA141-A2F5-48D8-B381-6353C167D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B54865B7-09A2-488B-B1EB-27FA985C1B22}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{F55CA141-A2F5-48D8-B381-6353C167D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E236EA9-CCD2-4375-ADF1-D5D2A2966F60}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3914C3-34A9-4851-8117-5700EE5613F7}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -980,8 +980,8 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <f>$D$3/$D$1/D9*(((180*(1-$D$12)/3.5)^2+$D$12^3/1.75*(D9^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$12)/3.5)</f>
-        <v>6.4151238820508966E-2</v>
+        <f>$D$3/$D$1/D9*(((180*(1-$D$11)/3.5)^2+$D$11^3/1.75*(D9^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$11)/3.5)</f>
+        <v>5.3624114296040436E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
       </c>
       <c r="D15">
         <f>D14*PI()*(D5/2)^2</f>
-        <v>4.6809652409184194E-3</v>
+        <v>3.9128256867668439E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="D16">
         <f>D15*60*264.17</f>
-        <v>74.194235261605129</v>
+        <v>62.019069700391832</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,8 +1067,8 @@
         <v>14</v>
       </c>
       <c r="D25">
-        <f>$D$3/$D$1/D23*(((180*(1-$D$12)/3.5)^2+$D$12^3/1.75*(D23^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$12)/3.5)</f>
-        <v>0.10534590083405303</v>
+        <f>$D$3/$D$1/D23*(((180*(1-$D$11)/3.5)^2+$D$11^3/1.75*(D23^3*$D$1*9.81*($D$10-$D$1)/$D$3^2))^(1/2)-180*(1-$D$11)/3.5)</f>
+        <v>9.0754993732306027E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="D26">
         <f>D25*PI()*(D5/2)^2</f>
-        <v>7.6868429845471948E-3</v>
+        <v>6.6221787593114959E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D27">
         <f>D26*60*264.17</f>
-        <v>121.83799867366996</v>
+        <v>104.96285777083908</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1134,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DDAC11-7BAC-44E5-AAA1-7BC3E0AE7623}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D1">
-        <v>1000</v>
+        <v>998.2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D5">
         <f>D4/1000</f>
-        <v>8.9999999999999998E-4</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D15">
         <f>D5/D1/D12*((14.42+1.827*(D12^3*9.81*D1*(D13-D1)/D5^2)^(1/2))^(1/2)-3.798)^2</f>
-        <v>5.114533401172372E-2</v>
+        <v>4.9978865466914699E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D16">
         <f>(D15/0.022)^2*4*D1/D7</f>
-        <v>140332.04858975054</v>
+        <v>133762.74698015497</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D23">
         <f>D1*D22*D7/D5</f>
-        <v>57937.941342778642</v>
+        <v>52050.287743525478</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D24">
         <f>(2.457*LN(1/((7/D23)^0.9+(0.27*D10))))^16</f>
-        <v>3.9048960251558147E+20</v>
+        <v>3.3388508644191902E+20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D25">
         <f>(37530/D23)^16</f>
-        <v>9.608333631361504E-4</v>
+        <v>5.3368730867422989E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D26">
         <f>2*((8/D23)^12+1/(D24+D25)^(3/2))^(1/12)</f>
-        <v>5.3343168846972065E-3</v>
+        <v>5.4397678762717807E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D27">
         <f>2*D1*D22^2*D19/D7*D26</f>
-        <v>145.10488417098671</v>
+        <v>147.70702570484983</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D28">
         <f>D22/((D13/D1-1)*D12*9.81)^(1/2)</f>
-        <v>6.7181230304290498</v>
+        <v>6.6753176105875438</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D29">
         <f>(D15/((D13/D1-1)*D7*9.81)^(1/2))^2</f>
-        <v>1.0619048973039783E-2</v>
+        <v>1.0011388953588296E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D35">
         <f>D34*D33*$D$1*9.81*$D$19*($D$13/$D$1-1)*($D$22/$D$15)^2</f>
-        <v>2846.2633877003418</v>
+        <v>3013.5884386750272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D36">
         <f>D35+$D$27</f>
-        <v>2991.3682718713285</v>
+        <v>3161.2954643798771</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D39">
         <f>D34+0.1*D29^2*(D38-0.25)</f>
-        <v>1.111280257412749E-2</v>
+        <v>1.1112614529742814E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D40">
         <f>D39*D38*$D$1*9.81*$D$19*($D$13/$D$1-1)*($D$22/$D$15)^2</f>
-        <v>5693.3933582666123</v>
+        <v>6027.9924006513129</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D41">
         <f>D40+$D$27</f>
-        <v>5838.4982424375994</v>
+        <v>6175.6994263561628</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/FluidsHW10.xlsx
+++ b/Homework/FluidsHW10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{F55CA141-A2F5-48D8-B381-6353C167D1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E236EA9-CCD2-4375-ADF1-D5D2A2966F60}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56424AA-64E8-4A56-93B4-719AC2EF1394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="14496" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -332,10 +332,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,13 +603,13 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,7 +620,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -635,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -651,7 +647,7 @@
         <v>7.4671789120905885E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -662,7 +658,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -671,7 +667,7 @@
         <v>7.6000000000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -686,7 +682,7 @@
         <v>13085.11919870462</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -704,7 +700,7 @@
         <v>1186.5153198223886</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -722,7 +718,7 @@
         <v>-3.7376554498902705</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -731,7 +727,7 @@
         <v>0.38100463301633747</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -747,7 +743,7 @@
         <v>3.0476778115361624E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -763,7 +759,7 @@
         <v>-9.3724369540859442E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -772,7 +768,7 @@
         <v>2.1816615649929118E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>22</v>
       </c>
@@ -781,7 +777,7 @@
         <v>2.0268792097926673E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -792,7 +788,7 @@
         <v>3.0476719145654508E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -804,7 +800,7 @@
         <v>3.7376554498902705</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -816,7 +812,7 @@
         <v>6.1772628419017262E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -825,7 +821,7 @@
         <v>6.1772628419017259</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -846,13 +842,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3914C3-34A9-4851-8117-5700EE5613F7}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -863,7 +859,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -874,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -883,7 +879,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -894,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -903,7 +899,7 @@
         <v>0.30480370641306997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -914,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -923,7 +919,7 @@
         <v>0.30480370641306997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -935,7 +931,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -944,7 +940,7 @@
         <v>1.5875193042347393E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -955,7 +951,7 @@
         <v>11300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -963,7 +959,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -972,7 +968,7 @@
         <v>0.41491326668312178</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -984,7 +980,7 @@
         <v>5.3624114296040436E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -996,7 +992,7 @@
         <v>3.9128256867668439E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>41</v>
       </c>
@@ -1005,7 +1001,7 @@
         <v>62.019069700391832</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>0.58581105463972027</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1029,7 +1025,7 @@
         <v>4.274525691057475E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>41</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>677.52087108399201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1050,7 +1046,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1055,7 @@
         <v>3.1750386084694786E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1067,7 @@
         <v>9.0754993732306027E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1083,7 +1079,7 @@
         <v>6.6221787593114959E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>41</v>
       </c>
@@ -1092,7 +1088,7 @@
         <v>104.96285777083908</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1104,7 +1100,7 @@
         <v>0.90647400454132443</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>6.6143279304803307E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>41</v>
       </c>
@@ -1134,16 +1130,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DDAC11-7BAC-44E5-AAA1-7BC3E0AE7623}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1150,7 @@
         <v>998.2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1165,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>46</v>
       </c>
@@ -1174,7 +1170,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1185,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1190,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1205,7 +1201,7 @@
         <v>6.0650000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1210,7 @@
         <v>0.15405287328293912</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1230,7 @@
         <v>4.5720555961960493E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1243,7 +1239,7 @@
         <v>2.9678483099752678E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1255,7 +1251,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1260,7 @@
         <v>1.5875193042347393E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1275,7 +1271,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1287,7 +1283,7 @@
         <v>4.9978865466914699E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1299,7 +1295,7 @@
         <v>133762.74698015497</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1310,7 +1306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>7</v>
       </c>
@@ -1319,7 +1315,7 @@
         <v>18.288222384784198</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1330,7 +1326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
@@ -1339,7 +1335,7 @@
         <v>6.3090686552851067E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1351,7 +1347,7 @@
         <v>0.33848214640392288</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1360,7 +1356,7 @@
         <v>52050.287743525478</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1369,7 +1365,7 @@
         <v>3.3388508644191902E+20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1378,7 +1374,7 @@
         <v>5.3368730867422989E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -1387,7 +1383,7 @@
         <v>5.4397678762717807E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1399,7 +1395,7 @@
         <v>147.70702570484983</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1408,7 +1404,7 @@
         <v>6.6753176105875438</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -1417,7 +1413,7 @@
         <v>1.0011388953588296E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1426,7 +1422,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1431,7 @@
         <v>1.1111111111111113E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1443,7 +1439,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1452,7 +1448,7 @@
         <v>1.1111111111111113E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1464,7 +1460,7 @@
         <v>3013.5884386750272</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -1473,7 +1469,7 @@
         <v>3161.2954643798771</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -1481,7 +1477,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1490,7 +1486,7 @@
         <v>1.1112614529742814E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>6027.9924006513129</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
